--- a/HarrisWolpertandPursuit/Types_of_sequences.xlsx
+++ b/HarrisWolpertandPursuit/Types_of_sequences.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="25">
   <si>
     <t xml:space="preserve">Trials</t>
   </si>
@@ -37,18 +37,30 @@
     <t xml:space="preserve">Type4</t>
   </si>
   <si>
+    <t xml:space="preserve">sequence3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sequence2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sequence4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sequence1</t>
+  </si>
+  <si>
     <t xml:space="preserve">RL</t>
   </si>
   <si>
-    <t xml:space="preserve">RR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LL</t>
-  </si>
-  <si>
     <t xml:space="preserve">SESSION 1</t>
   </si>
   <si>
@@ -67,13 +79,13 @@
     <t xml:space="preserve">M = 0.025</t>
   </si>
   <si>
+    <t xml:space="preserve">M = 0.225</t>
+  </si>
+  <si>
     <t xml:space="preserve">M = 0.15</t>
   </si>
   <si>
     <t xml:space="preserve">M = 0.125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M = 0.225</t>
   </si>
   <si>
     <t xml:space="preserve">M = 0.2</t>
@@ -194,7 +206,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -220,11 +232,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -251,13 +271,13 @@
   <dimension ref="1:51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J13" activeCellId="70" sqref="B4:B5 B8:C8 B10 B13:C13 B20:C20 B22 B26:D26 B29 B32 B35 B50 C2 C5:D5 C18 C23 C31 C34 C39 D9 D11 D14 D17 D23:D24 D35 D38:D39 E4 E7 E13:E14 E22 E25 E27 E29 E32 E39 H2:H5 H7:H8 H10 H13 H16:H18 H21:H22 H24:H27 H29 H31 H34:H36 H39:H41 H50 I3:I4 I6:I7 I11:I12 I17 I19:I21 I23:I25 I29:I30 I32 I34 I36:I37 I41 L2 L7:L8 L11:L12 L14 L16:L17 L19 L21:L23 L25 L27:L28 L30:L33 L36:L41 L50 O32:O41 J13"/>
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="2" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="2" width="12.5344129554656"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -310,32 +330,33 @@
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F2" s="0"/>
       <c r="G2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="7"/>
       <c r="K2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>6</v>
+      <c r="L2" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>8</v>
+      <c r="O2" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -343,38 +364,39 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F3" s="0"/>
       <c r="G3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="7"/>
       <c r="K3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>7</v>
+      <c r="L3" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="O3" s="6" t="s">
-        <v>8</v>
+      <c r="O3" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -391,29 +413,30 @@
         <v>5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F4" s="0"/>
       <c r="G4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="6"/>
+      <c r="H4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="7"/>
       <c r="K4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>7</v>
+      <c r="L4" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="O4" s="6" t="s">
-        <v>8</v>
+      <c r="O4" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -421,38 +444,39 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>5</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F5" s="0"/>
       <c r="G5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="6"/>
+      <c r="H5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="7"/>
       <c r="K5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>5</v>
+      <c r="L5" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O5" s="6" t="s">
-        <v>8</v>
+      <c r="O5" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -460,38 +484,39 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F6" s="0"/>
       <c r="G6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="8"/>
       <c r="K6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>5</v>
+      <c r="L6" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="O6" s="6" t="s">
-        <v>8</v>
+      <c r="O6" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -499,38 +524,39 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="F7" s="0"/>
       <c r="G7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="8"/>
       <c r="K7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>6</v>
+      <c r="L7" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="O7" s="6" t="s">
-        <v>8</v>
+      <c r="O7" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -538,38 +564,39 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F8" s="0"/>
       <c r="G8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="8"/>
       <c r="K8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>6</v>
+      <c r="L8" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="O8" s="6" t="s">
-        <v>8</v>
+      <c r="O8" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -577,38 +604,39 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>5</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F9" s="0"/>
       <c r="G9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="8"/>
       <c r="K9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>5</v>
+      <c r="L9" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="O9" s="6" t="s">
-        <v>8</v>
+      <c r="O9" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -616,38 +644,39 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F10" s="0"/>
       <c r="G10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="8"/>
       <c r="K10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>5</v>
+      <c r="L10" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="O10" s="6" t="s">
-        <v>8</v>
+      <c r="O10" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -655,38 +684,39 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>5</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F11" s="0"/>
       <c r="G11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="8"/>
       <c r="K11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>6</v>
+      <c r="L11" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="O11" s="6" t="s">
-        <v>8</v>
+      <c r="O11" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -694,38 +724,39 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F12" s="0"/>
       <c r="G12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="6"/>
+      <c r="H12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="7"/>
       <c r="K12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="L12" s="6" t="s">
-        <v>6</v>
+      <c r="L12" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="O12" s="6" t="s">
-        <v>7</v>
+      <c r="O12" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -733,38 +764,39 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="F13" s="0"/>
       <c r="G13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="6"/>
+      <c r="H13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="7"/>
       <c r="K13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>7</v>
+      <c r="L13" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="O13" s="6" t="s">
-        <v>7</v>
+      <c r="O13" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -772,38 +804,39 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F14" s="0"/>
       <c r="G14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="6"/>
+      <c r="H14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="7"/>
       <c r="K14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>6</v>
+      <c r="L14" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="O14" s="6" t="s">
-        <v>7</v>
+      <c r="O14" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -811,77 +844,79 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="F15" s="0"/>
       <c r="G15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="6"/>
+      <c r="H15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="7"/>
       <c r="K15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="L15" s="6" t="s">
-        <v>5</v>
+      <c r="L15" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="O15" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O15" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F16" s="0"/>
       <c r="G16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="6"/>
+      <c r="H16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="7"/>
       <c r="K16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="L16" s="6" t="s">
-        <v>6</v>
+      <c r="L16" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="O16" s="6" t="s">
-        <v>7</v>
+      <c r="O16" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -889,38 +924,39 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F17" s="0"/>
       <c r="G17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="6"/>
+      <c r="H17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="7"/>
       <c r="K17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="L17" s="6" t="s">
-        <v>6</v>
+      <c r="L17" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="O17" s="6" t="s">
-        <v>7</v>
+      <c r="O17" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -928,38 +964,39 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="F18" s="0"/>
       <c r="G18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="6"/>
+      <c r="H18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="7"/>
       <c r="K18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="L18" s="6" t="s">
-        <v>7</v>
+      <c r="L18" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="O18" s="6" t="s">
-        <v>7</v>
+      <c r="O18" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -967,38 +1004,39 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F19" s="0"/>
       <c r="G19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="6"/>
+      <c r="H19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="7"/>
       <c r="K19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="L19" s="6" t="s">
-        <v>6</v>
+      <c r="L19" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="O19" s="6" t="s">
-        <v>7</v>
+      <c r="O19" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1006,38 +1044,39 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F20" s="0"/>
       <c r="G20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="6"/>
+      <c r="H20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="7"/>
       <c r="K20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="L20" s="6" t="s">
-        <v>7</v>
+      <c r="L20" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="O20" s="6" t="s">
-        <v>7</v>
+      <c r="O20" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1045,38 +1084,39 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F21" s="0"/>
       <c r="G21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" s="6"/>
+      <c r="H21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="7"/>
       <c r="K21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="L21" s="6" t="s">
-        <v>6</v>
+      <c r="L21" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="N21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="O21" s="6" t="s">
-        <v>7</v>
+      <c r="O21" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1087,35 +1127,36 @@
         <v>6</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="F22" s="0"/>
       <c r="G22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J22" s="6"/>
+      <c r="H22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="7"/>
       <c r="K22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="L22" s="6" t="s">
-        <v>6</v>
+      <c r="L22" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="N22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="O22" s="6" t="s">
-        <v>5</v>
+      <c r="O22" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1123,38 +1164,39 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="F23" s="0"/>
       <c r="G23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="6"/>
+      <c r="H23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="7"/>
       <c r="K23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="L23" s="6" t="s">
-        <v>6</v>
+      <c r="L23" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="N23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="O23" s="6" t="s">
-        <v>5</v>
+      <c r="O23" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1162,38 +1204,39 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>5</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F24" s="0"/>
       <c r="G24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" s="6"/>
+      <c r="H24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="7"/>
       <c r="K24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="L24" s="6" t="s">
-        <v>5</v>
+      <c r="L24" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="N24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="O24" s="6" t="s">
-        <v>5</v>
+      <c r="O24" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1201,38 +1244,39 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="F25" s="0"/>
       <c r="G25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" s="6"/>
+      <c r="H25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="7"/>
       <c r="K25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="L25" s="6" t="s">
-        <v>6</v>
+      <c r="L25" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="N25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="O25" s="6" t="s">
-        <v>5</v>
+      <c r="O25" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1240,38 +1284,39 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F26" s="0"/>
       <c r="G26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J26" s="6"/>
+      <c r="H26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="7"/>
       <c r="K26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="L26" s="6" t="s">
-        <v>5</v>
+      <c r="L26" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="N26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="O26" s="6" t="s">
-        <v>5</v>
+      <c r="O26" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1282,35 +1327,36 @@
         <v>5</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F27" s="0"/>
       <c r="G27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="6"/>
+      <c r="H27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="7"/>
       <c r="K27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="L27" s="6" t="s">
-        <v>6</v>
+      <c r="L27" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="N27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="O27" s="6" t="s">
-        <v>5</v>
+      <c r="O27" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1318,38 +1364,39 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F28" s="0"/>
       <c r="G28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J28" s="6"/>
+      <c r="H28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="7"/>
       <c r="K28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="L28" s="6" t="s">
-        <v>6</v>
+      <c r="L28" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="N28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="O28" s="6" t="s">
-        <v>5</v>
+      <c r="O28" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1360,35 +1407,36 @@
         <v>6</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F29" s="0"/>
       <c r="G29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J29" s="6"/>
+      <c r="H29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="7"/>
       <c r="K29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="L29" s="6" t="s">
-        <v>5</v>
+      <c r="L29" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="N29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="O29" s="6" t="s">
-        <v>5</v>
+      <c r="O29" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1396,38 +1444,39 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F30" s="0"/>
       <c r="G30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" s="6"/>
+      <c r="H30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="7"/>
       <c r="K30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="L30" s="6" t="s">
-        <v>6</v>
+      <c r="L30" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="N30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="O30" s="6" t="s">
-        <v>5</v>
+      <c r="O30" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1435,38 +1484,39 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F31" s="0"/>
       <c r="G31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J31" s="6"/>
+      <c r="H31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="7"/>
       <c r="K31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="L31" s="6" t="s">
-        <v>6</v>
+      <c r="L31" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="N31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="O31" s="6" t="s">
-        <v>5</v>
+      <c r="O31" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1477,35 +1527,36 @@
         <v>6</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F32" s="0"/>
       <c r="G32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J32" s="6"/>
+      <c r="H32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="7"/>
       <c r="K32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="L32" s="6" t="s">
-        <v>6</v>
+      <c r="L32" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="N32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="O32" s="6" t="s">
-        <v>6</v>
+      <c r="O32" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1513,38 +1564,39 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F33" s="0"/>
       <c r="G33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="H33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="6"/>
+      <c r="H33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="7"/>
       <c r="K33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="L33" s="6" t="s">
-        <v>6</v>
+      <c r="L33" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="N33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="O33" s="6" t="s">
-        <v>6</v>
+      <c r="O33" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1552,38 +1604,39 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="0"/>
       <c r="G34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J34" s="6"/>
+      <c r="H34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="7"/>
       <c r="K34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="L34" s="6" t="s">
-        <v>5</v>
+      <c r="L34" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="N34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="O34" s="6" t="s">
-        <v>6</v>
+      <c r="O34" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1591,38 +1644,39 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="0"/>
       <c r="G35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="H35" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J35" s="6"/>
+      <c r="H35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="7"/>
       <c r="K35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="L35" s="6" t="s">
-        <v>8</v>
+      <c r="L35" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="N35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="O35" s="6" t="s">
-        <v>6</v>
+      <c r="O35" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1630,38 +1684,39 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="0"/>
       <c r="G36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J36" s="6"/>
+      <c r="H36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" s="7"/>
       <c r="K36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="L36" s="6" t="s">
-        <v>6</v>
+      <c r="L36" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="N36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="O36" s="6" t="s">
-        <v>6</v>
+      <c r="O36" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1669,38 +1724,39 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F37" s="0"/>
       <c r="G37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J37" s="6"/>
+      <c r="H37" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="7"/>
       <c r="K37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="L37" s="6" t="s">
-        <v>6</v>
+      <c r="L37" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="N37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="O37" s="6" t="s">
-        <v>6</v>
+      <c r="O37" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1711,35 +1767,36 @@
         <v>5</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F38" s="0"/>
       <c r="G38" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J38" s="6"/>
+      <c r="H38" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="7"/>
       <c r="K38" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="L38" s="6" t="s">
-        <v>6</v>
+      <c r="L38" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="N38" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="O38" s="6" t="s">
-        <v>6</v>
+      <c r="O38" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1747,7 +1804,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>6</v>
@@ -1758,27 +1815,28 @@
       <c r="E39" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="F39" s="0"/>
       <c r="G39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="H39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J39" s="6"/>
+      <c r="H39" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="7"/>
       <c r="K39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="L39" s="6" t="s">
-        <v>6</v>
+      <c r="L39" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="N39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="O39" s="6" t="s">
-        <v>6</v>
+      <c r="O39" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1789,35 +1847,36 @@
         <v>5</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F40" s="0"/>
       <c r="G40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="H40" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J40" s="6"/>
+      <c r="H40" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40" s="7"/>
       <c r="K40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="L40" s="6" t="s">
-        <v>6</v>
+      <c r="L40" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="N40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="O40" s="6" t="s">
-        <v>6</v>
+      <c r="O40" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1825,115 +1884,121 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F41" s="0"/>
       <c r="G41" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="H41" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J41" s="6"/>
+      <c r="H41" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" s="7"/>
       <c r="K41" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="L41" s="6" t="s">
-        <v>6</v>
+      <c r="L41" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="N41" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="O41" s="6" t="s">
-        <v>6</v>
+      <c r="O41" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="G42" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="K42" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L42" s="8"/>
-      <c r="N42" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O42" s="8"/>
+      <c r="A42" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="G42" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="K42" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L42" s="10"/>
+      <c r="N42" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O42" s="10"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0"/>
+      <c r="H43" s="0"/>
+      <c r="L43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1941,32 +2006,32 @@
         <v>17</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
